--- a/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Edad-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11115</v>
+        <v>9408</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1002311328953868</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4810574018611289</v>
+        <v>0.4071807050746082</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12616</v>
+        <v>11820</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0393951290359787</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2146058920848625</v>
+        <v>0.2010634493641893</v>
       </c>
     </row>
     <row r="5">
@@ -804,7 +804,7 @@
         <v>30428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19101</v>
+        <v>19937</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>35680</v>
@@ -813,7 +813,7 @@
         <v>0.8527890012130117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5353483792780699</v>
+        <v>0.558772051355455</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -825,19 +825,19 @@
         <v>11500</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5123</v>
+        <v>5073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18057</v>
+        <v>17642</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4977065129832604</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2217085809129754</v>
+        <v>0.2195758542264852</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7815337641772949</v>
+        <v>0.7635643462993232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -846,19 +846,19 @@
         <v>41927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30191</v>
+        <v>29894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51769</v>
+        <v>50935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7132263719366617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5135751752953656</v>
+        <v>0.5085250763501389</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8806452131197936</v>
+        <v>0.8664628947352729</v>
       </c>
     </row>
     <row r="6">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7132</v>
+        <v>7836</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05785800776852604</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3086915056199812</v>
+        <v>0.3391433559667258</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7708</v>
+        <v>8006</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.02274067563602934</v>
+        <v>0.02274067563602933</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1311231893087023</v>
+        <v>0.1361945752237372</v>
       </c>
     </row>
     <row r="7">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16579</v>
+        <v>15743</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1472109987869882</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4646516207219293</v>
+        <v>0.4412279486445451</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -959,19 +959,19 @@
         <v>5578</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1625</v>
+        <v>1541</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12632</v>
+        <v>12466</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2414115011890288</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07033445443156902</v>
+        <v>0.06670715899536023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5467391650739371</v>
+        <v>0.53954676336444</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -980,19 +980,19 @@
         <v>10830</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3650</v>
+        <v>3371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23372</v>
+        <v>23342</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1842358316925057</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0620944062840654</v>
+        <v>0.05734567523563628</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3975923058436908</v>
+        <v>0.3970669383973034</v>
       </c>
     </row>
     <row r="8">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10038</v>
+        <v>9153</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1027928451637979</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.434435560192873</v>
+        <v>0.3961633050975713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12827</v>
+        <v>15348</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04040199169882452</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2182069083080505</v>
+        <v>0.2610885041036423</v>
       </c>
     </row>
     <row r="9">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5509</v>
+        <v>6783</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03267559788891833</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1498062529013369</v>
+        <v>0.1844424708847615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5765</v>
+        <v>5101</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06950899817922607</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3644581856408505</v>
+        <v>0.3225156356607011</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7452</v>
+        <v>7874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04375315322385297</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1416978228532123</v>
+        <v>0.14972423794047</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>12045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4788</v>
+        <v>4906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20571</v>
+        <v>20513</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3275315329529619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.13020281745011</v>
+        <v>0.133408609608809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5593661802371394</v>
+        <v>0.5577820834968988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5720</v>
+        <v>6728</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1222876871481914</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3616149840200373</v>
+        <v>0.4253788996488407</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1260,19 +1260,19 @@
         <v>13979</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6670</v>
+        <v>5846</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24112</v>
+        <v>23965</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2658049467258573</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1268152102701904</v>
+        <v>0.1111559500698657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4584642004339166</v>
+        <v>0.455661723919133</v>
       </c>
     </row>
     <row r="12">
@@ -1289,19 +1289,19 @@
         <v>12708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5887</v>
+        <v>6117</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22159</v>
+        <v>21860</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3455615052214226</v>
+        <v>0.3455615052214228</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1600664933383671</v>
+        <v>0.1663267228244272</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6025305479705365</v>
+        <v>0.5944007871866929</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1310,19 +1310,19 @@
         <v>4385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1313</v>
+        <v>1269</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10114</v>
+        <v>9635</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2772555485190047</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08301896591513107</v>
+        <v>0.08022392124948277</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6394089710179719</v>
+        <v>0.6091656052531138</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1331,19 +1331,19 @@
         <v>17094</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9323</v>
+        <v>9791</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26208</v>
+        <v>27459</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3250186552778134</v>
+        <v>0.3250186552778135</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1772721626115601</v>
+        <v>0.1861600898980066</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4983111105396027</v>
+        <v>0.5221020940968658</v>
       </c>
     </row>
     <row r="13">
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6692</v>
+        <v>6195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03321862266838042</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1819799512166168</v>
+        <v>0.1684524011284669</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4645</v>
+        <v>4669</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0556350625577969</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2936850324324532</v>
+        <v>0.2951672897495679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7088</v>
+        <v>7992</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03996031231229281</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.134777743936867</v>
+        <v>0.1519536694853575</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>9599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4057</v>
+        <v>3541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19258</v>
+        <v>19377</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2610127412683166</v>
+        <v>0.2610127412683167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1103071155251708</v>
+        <v>0.0962934467669557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5236628155758466</v>
+        <v>0.5269039487953071</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1452,19 +1452,19 @@
         <v>7518</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3222</v>
+        <v>2834</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12007</v>
+        <v>11821</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4753127035957809</v>
+        <v>0.475312703595781</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2036749862197139</v>
+        <v>0.1791947347720674</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.759143781174932</v>
+        <v>0.7473436108191719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1473,19 +1473,19 @@
         <v>17117</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8989</v>
+        <v>8607</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27285</v>
+        <v>25761</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3254629324601834</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1709174349739569</v>
+        <v>0.1636591199484083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5188039520987909</v>
+        <v>0.4898091485298059</v>
       </c>
     </row>
     <row r="15">
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5619</v>
+        <v>5424</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09251592898895354</v>
+        <v>0.09251592898895356</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3717058752971554</v>
+        <v>0.3588118342132853</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7017</v>
+        <v>5752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05816200988300189</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2918212752233929</v>
+        <v>0.2392104424625761</v>
       </c>
     </row>
     <row r="17">
@@ -1640,19 +1640,19 @@
         <v>3804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1180</v>
+        <v>1121</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8792</v>
+        <v>8462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2516239717831139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07805616078264595</v>
+        <v>0.07414247992777569</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.58163605129105</v>
+        <v>0.559781004273435</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4690</v>
+        <v>4419</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1662818921854204</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5253455544436859</v>
+        <v>0.4949503812616617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1682,19 +1682,19 @@
         <v>5288</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10499</v>
+        <v>10278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2199339165583221</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08259351737695309</v>
+        <v>0.08266181375419943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4366482017830111</v>
+        <v>0.4274512088016268</v>
       </c>
     </row>
     <row r="18">
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7303</v>
+        <v>7524</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1680055903524933</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4831401444528375</v>
+        <v>0.4977828318908438</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1732,19 +1732,19 @@
         <v>2750</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5214</v>
+        <v>5599</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3079658790441668</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08514376653900357</v>
+        <v>0.08629079761155643</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5839508528867778</v>
+        <v>0.627176123483676</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -1753,19 +1753,19 @@
         <v>5289</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2096</v>
+        <v>2264</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10216</v>
+        <v>10212</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2199770128772943</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08718461459370772</v>
+        <v>0.0941713911698828</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4248688283911429</v>
+        <v>0.4247099303708265</v>
       </c>
     </row>
     <row r="19">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6432</v>
+        <v>6339</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1396861341602906</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4254988163657061</v>
+        <v>0.4193407230447539</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1803,19 +1803,19 @@
         <v>3109</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5622</v>
+        <v>6079</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3481969748604365</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09092726811701021</v>
+        <v>0.0915806600984725</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6296541470314029</v>
+        <v>0.680870074830351</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1824,19 +1824,19 @@
         <v>5220</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2251</v>
+        <v>2260</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10202</v>
+        <v>9839</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2171124177463536</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09359790964466988</v>
+        <v>0.09399919321591224</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4242856133607953</v>
+        <v>0.409206893531622</v>
       </c>
     </row>
     <row r="20">
@@ -1853,19 +1853,19 @@
         <v>5263</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1627</v>
+        <v>1893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9697</v>
+        <v>10092</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3481683747151486</v>
+        <v>0.3481683747151487</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1076405163802165</v>
+        <v>0.1252364280235786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6414764247109882</v>
+        <v>0.6676419470282122</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4843</v>
+        <v>4597</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1775552539099763</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5424951467615037</v>
+        <v>0.5149360098274531</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1895,19 +1895,19 @@
         <v>6848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2888</v>
+        <v>3110</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11569</v>
+        <v>11589</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.284814642935028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1201078025858888</v>
+        <v>0.1293552130879723</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4811595397111708</v>
+        <v>0.4819890826506339</v>
       </c>
     </row>
     <row r="21">
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5793</v>
+        <v>5923</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08143010790994697</v>
+        <v>0.08143010790994695</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4272533146095411</v>
+        <v>0.4368459617471939</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2497</v>
+        <v>2090</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04247477833774661</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.232833404356228</v>
+        <v>0.1948597275315927</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6665</v>
+        <v>5801</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06422428411463336</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2744547826293767</v>
+        <v>0.238890678368443</v>
       </c>
     </row>
     <row r="23">
@@ -2070,19 +2070,19 @@
         <v>4400</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1106</v>
+        <v>1200</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8824</v>
+        <v>8785</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.324547017662382</v>
+        <v>0.3245470176623819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08157215627459591</v>
+        <v>0.08848396785388359</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6508367930192399</v>
+        <v>0.6479649024922445</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4096</v>
+        <v>4110</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.128025756012224</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3818467127058954</v>
+        <v>0.3831793549753271</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -2112,19 +2112,19 @@
         <v>5773</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2311</v>
+        <v>2350</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10426</v>
+        <v>10471</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2377473361523496</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0951472228213719</v>
+        <v>0.09677178685031299</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4293339941390867</v>
+        <v>0.4311796734593217</v>
       </c>
     </row>
     <row r="24">
@@ -2144,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4654</v>
+        <v>4773</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08093727630957752</v>
+        <v>0.0809372763095775</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3432325072914758</v>
+        <v>0.3520674224521256</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2162,19 +2162,19 @@
         <v>2214</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4946</v>
+        <v>5049</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2063918675061038</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06755885162001117</v>
+        <v>0.06543572610282361</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4611588582355817</v>
+        <v>0.4707328602184829</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2183,19 +2183,19 @@
         <v>3311</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>991</v>
+        <v>754</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7814</v>
+        <v>7097</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1363481690974269</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04080359054545105</v>
+        <v>0.03105730391569242</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3217884670359822</v>
+        <v>0.2922550536813127</v>
       </c>
     </row>
     <row r="25">
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6794</v>
+        <v>6900</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.168606862805382</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5011118523666535</v>
+        <v>0.5089199956921504</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3950</v>
+        <v>3868</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1233831659729128</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3683054550619395</v>
+        <v>0.3605922054596668</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2254,19 +2254,19 @@
         <v>3609</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1102</v>
+        <v>770</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8202</v>
+        <v>8129</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1486324211149329</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04538796772898602</v>
+        <v>0.03170078099882735</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.337751465648899</v>
+        <v>0.3347428456546602</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>4670</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8964</v>
+        <v>9077</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3444787353127115</v>
+        <v>0.3444787353127114</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08831013477958805</v>
+        <v>0.08760281325489687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6611680909223572</v>
+        <v>0.6694695357693538</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2304,19 +2304,19 @@
         <v>5360</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2781</v>
+        <v>2762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8048</v>
+        <v>7947</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4997244321710127</v>
+        <v>0.4997244321710128</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2592615687976967</v>
+        <v>0.2574808426182952</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7503294127818626</v>
+        <v>0.7408991022927834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2325,19 +2325,19 @@
         <v>10030</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5837</v>
+        <v>5958</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14336</v>
+        <v>14925</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4130477895206573</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2403724982416682</v>
+        <v>0.2453660796431242</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5903584247540344</v>
+        <v>0.6145991379391491</v>
       </c>
     </row>
     <row r="27">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4131</v>
+        <v>4446</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1687515625249015</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6344060108786423</v>
+        <v>0.6827302726787621</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4785</v>
+        <v>4271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1085802030071806</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4728337354832987</v>
+        <v>0.4219890930790389</v>
       </c>
     </row>
     <row r="30">
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4540</v>
+        <v>4455</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2523371822605165</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6971305355428642</v>
+        <v>0.684190705396865</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3003</v>
+        <v>2673</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3741047311471155</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8324241220191245</v>
+        <v>0.7407222573289722</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2581,19 +2581,19 @@
         <v>2993</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>830</v>
+        <v>943</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6331</v>
+        <v>6114</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2957555592640837</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08199758328649351</v>
+        <v>0.09317381985946649</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6256017615285513</v>
+        <v>0.6041055734305814</v>
       </c>
     </row>
     <row r="31">
@@ -2657,19 +2657,19 @@
         <v>3770</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>998</v>
+        <v>1020</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5817</v>
+        <v>6512</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5789112552145821</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1531955489520022</v>
+        <v>0.156672838505813</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8932576835317779</v>
+        <v>1</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2678,7 +2678,7 @@
         <v>2258</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>597</v>
+        <v>935</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>3608</v>
@@ -2687,7 +2687,7 @@
         <v>0.6258952688528845</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.165491366310349</v>
+        <v>0.2592777426710279</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -2699,19 +2699,19 @@
         <v>6028</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2961</v>
+        <v>3236</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8611</v>
+        <v>8569</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.5956642377287358</v>
+        <v>0.595664237728736</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2925986660088312</v>
+        <v>0.3197479131586766</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8509150343679928</v>
+        <v>0.8467279473066583</v>
       </c>
     </row>
     <row r="33">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2543</v>
+        <v>2323</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1782432618441186</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7435402341332109</v>
+        <v>0.6791901391796392</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2589</v>
+        <v>2606</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1405051274895032</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5968689612008077</v>
+        <v>0.6006843677505717</v>
       </c>
     </row>
     <row r="35">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2380</v>
+        <v>1932</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1128878545208573</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.695966201324893</v>
+        <v>0.5648920348831711</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>3234</v>
+        <v>3337</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3007095819025126</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.7453928090416523</v>
+        <v>0.769178220554648</v>
       </c>
     </row>
     <row r="36">
@@ -2945,16 +2945,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2855</v>
+        <v>2872</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3562606207106424</v>
+        <v>0.3562606207106425</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8349038077588355</v>
+        <v>0.8399086095430295</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3315</v>
+        <v>3128</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2808321807767121</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7641732892129393</v>
+        <v>0.7209581273517982</v>
       </c>
     </row>
     <row r="37">
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2844</v>
+        <v>2897</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3526082629243817</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.831476137024314</v>
+        <v>0.8470213043125773</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2779531098312722</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.705013978366939</v>
+        <v>0.704088838791434</v>
       </c>
     </row>
     <row r="39">
@@ -3455,19 +3455,19 @@
         <v>3704</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1089</v>
+        <v>1026</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>10347</v>
+        <v>9388</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.03412136360381401</v>
+        <v>0.034121363603814</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01003149189862108</v>
+        <v>0.009454793442129751</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09530768879513311</v>
+        <v>0.08648038848980545</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -3476,19 +3476,19 @@
         <v>4480</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1141</v>
+        <v>1065</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>13713</v>
+        <v>13211</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.06788975476281038</v>
+        <v>0.06788975476281037</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01729413654765912</v>
+        <v>0.01613839703622643</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2077857062693119</v>
+        <v>0.2001780382015587</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -3497,19 +3497,19 @@
         <v>8185</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3300</v>
+        <v>3620</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>18763</v>
+        <v>17801</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0468883979815534</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0189025679798316</v>
+        <v>0.02073745361507094</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1074899164194992</v>
+        <v>0.101979285018292</v>
       </c>
     </row>
     <row r="47">
@@ -3526,19 +3526,19 @@
         <v>52694</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>38391</v>
+        <v>39139</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>68729</v>
+        <v>69559</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.4853881452378659</v>
+        <v>0.4853881452378658</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3536348659839759</v>
+        <v>0.360525076970941</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6330957226062459</v>
+        <v>0.6407448888351645</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>14</v>
@@ -3547,19 +3547,19 @@
         <v>17068</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>9898</v>
+        <v>9950</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>26164</v>
+        <v>26488</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2586256810624503</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1499788636826419</v>
+        <v>0.1507679041134311</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3964481208201629</v>
+        <v>0.4013574567074353</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>38</v>
@@ -3568,19 +3568,19 @@
         <v>69762</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>53895</v>
+        <v>53278</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>89046</v>
+        <v>87652</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.3996545915699666</v>
+        <v>0.3996545915699667</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3087548772340608</v>
+        <v>0.3052221694411867</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5101287107826029</v>
+        <v>0.5021448329221202</v>
       </c>
     </row>
     <row r="48">
@@ -3597,19 +3597,19 @@
         <v>17988</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9784</v>
+        <v>8931</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>29999</v>
+        <v>28913</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.1656992670538537</v>
+        <v>0.1656992670538536</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.09012803854566084</v>
+        <v>0.0822674934883915</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2763370972176566</v>
+        <v>0.2663274986577306</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>15</v>
@@ -3618,19 +3618,19 @@
         <v>13254</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>7995</v>
+        <v>7710</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>22120</v>
+        <v>21631</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2008312862060588</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1211467030527291</v>
+        <v>0.1168282571066376</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3351741042832903</v>
+        <v>0.3277598751785977</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>28</v>
@@ -3639,19 +3639,19 @@
         <v>31242</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>20681</v>
+        <v>21597</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>46308</v>
+        <v>45120</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.178981857099785</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1184757658655104</v>
+        <v>0.123724807321798</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2652945688531598</v>
+        <v>0.2584883378929023</v>
       </c>
     </row>
     <row r="49">
@@ -3668,19 +3668,19 @@
         <v>10872</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>4857</v>
+        <v>4196</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>22670</v>
+        <v>24415</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1001441449018378</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04474119560421597</v>
+        <v>0.03865027043066363</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2088278479735856</v>
+        <v>0.2248952376683952</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>10</v>
@@ -3689,19 +3689,19 @@
         <v>10890</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>5371</v>
+        <v>5334</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>19886</v>
+        <v>20190</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.1650125647044539</v>
+        <v>0.1650125647044538</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08138483250670514</v>
+        <v>0.08081690697400946</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3013274851572186</v>
+        <v>0.305935194596237</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>17</v>
@@ -3710,19 +3710,19 @@
         <v>21762</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>12977</v>
+        <v>12738</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>35492</v>
+        <v>35614</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1246693685570072</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.07434456295316844</v>
+        <v>0.07297340694573436</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2033274837879132</v>
+        <v>0.2040299006905538</v>
       </c>
     </row>
     <row r="50">
@@ -3739,19 +3739,19 @@
         <v>23302</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>13524</v>
+        <v>13569</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>35754</v>
+        <v>35631</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2146470792026287</v>
+        <v>0.2146470792026286</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1245806874846625</v>
+        <v>0.124987141710144</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3293463043592925</v>
+        <v>0.3282154216029717</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>24</v>
@@ -3760,19 +3760,19 @@
         <v>20303</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>13146</v>
+        <v>13105</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>29943</v>
+        <v>29613</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3076407132642268</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1991951913102173</v>
+        <v>0.1985708256357639</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4537160104981279</v>
+        <v>0.4487212412128646</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>42</v>
@@ -3781,19 +3781,19 @@
         <v>43605</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>31356</v>
+        <v>31540</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>58478</v>
+        <v>58435</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.2498057847916878</v>
+        <v>0.2498057847916877</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1796311194607804</v>
+        <v>0.1806864786441118</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3350098208929416</v>
+        <v>0.3347661419762137</v>
       </c>
     </row>
     <row r="51">
